--- a/biology/Botanique/Pararistolochia_preussii/Pararistolochia_preussii.xlsx
+++ b/biology/Botanique/Pararistolochia_preussii/Pararistolochia_preussii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pararistolochia preussii Hutch &amp; Dalziel[3] est une liane de la famille des Aristolochiaceae et du genre Pararistolochia, endémique du Cameroun. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pararistolochia preussii Hutch &amp; Dalziel est une liane de la famille des Aristolochiaceae et du genre Pararistolochia, endémique du Cameroun. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique preussii fait référence au botaniste allemand Paul Rudolph Preuss [4], qui collecta les spécimens entre le lac Barombi et Kumba[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique preussii fait référence au botaniste allemand Paul Rudolph Preuss , qui collecta les spécimens entre le lac Barombi et Kumba.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liane peut mesurer jusqu'à 10 mètres.  
-Elle se développe dans les forêts de plaines dégradées. C'est une espèce rare qui se trouve entre 1 et 200 mètres d'altitude[6]. 
+Elle se développe dans les forêts de plaines dégradées. C'est une espèce rare qui se trouve entre 1 et 200 mètres d'altitude. 
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Assez rare, en danger critique d'extinction du fait de la déforestation, l'espèce a été observée au Cameroun dans la Région du Sud-Ouest et celle du Sud[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assez rare, en danger critique d'extinction du fait de la déforestation, l'espèce a été observée au Cameroun dans la Région du Sud-Ouest et celle du Sud.
 </t>
         </is>
       </c>
